--- a/feature/harmonize-profiles-descriptions/ig/StructureDefinition-sas-sos-appointment.xlsx
+++ b/feature/harmonize-profiles-descriptions/ig/StructureDefinition-sas-sos-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-03T16:53:35+00:00</t>
+    <t>2024-12-03T17:09:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil de Slot, dérivé de FrSlot, pour le service d’agrégation de créneaux de la plateforme SAS (Service d’accès aux soins), dans le cadre du cas d’usage SOS Médecins</t>
+    <t>Profil de Slot, dérivé de FrSlot, pour le service d’agrégation de créneaux de la plateforme SAS - cas d’usage SOS Médecins</t>
   </si>
   <si>
     <t>Purpose</t>
